--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\in8DebAd\eclipse-workspace\orangeHRM\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FD78B8-745E-457F-ABB3-1DF61B01B302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2DD014-2CEE-430D-BC21-AA024C8DA215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{15C90C7C-345A-46E7-B3C5-A7DF017B243D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{15C90C7C-345A-46E7-B3C5-A7DF017B243D}"/>
   </bookViews>
   <sheets>
     <sheet name="testdata" sheetId="1" r:id="rId1"/>
     <sheet name="testdata1" sheetId="2" r:id="rId2"/>
+    <sheet name="invocationcount" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
   <si>
     <t>username</t>
   </si>
@@ -94,6 +95,39 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>testname</t>
+  </si>
+  <si>
+    <t>testdescription</t>
+  </si>
+  <si>
+    <t>execute</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>doLoginTest</t>
+  </si>
+  <si>
+    <t>Fetches the title of the login page</t>
+  </si>
+  <si>
+    <t>getPageTitleTest</t>
+  </si>
+  <si>
+    <t>Login with user credentials</t>
   </si>
 </sst>
 </file>
@@ -564,7 +598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5AAD7E7-2326-4072-B426-690408F60E90}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -648,4 +682,74 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD2EB0D-33B7-49D7-ACBF-38416B90E7CF}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.1796875" customWidth="1"/>
+    <col min="2" max="2" width="59.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -8,37 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\in8DebAd\eclipse-workspace\orangeHRM\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2DD014-2CEE-430D-BC21-AA024C8DA215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4177E8-C8BA-4EF5-9EBC-31697D700153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{15C90C7C-345A-46E7-B3C5-A7DF017B243D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{15C90C7C-345A-46E7-B3C5-A7DF017B243D}"/>
   </bookViews>
   <sheets>
     <sheet name="testdata" sheetId="1" r:id="rId1"/>
     <sheet name="testdata1" sheetId="2" r:id="rId2"/>
     <sheet name="invocationcount" sheetId="3" r:id="rId3"/>
+    <sheet name="data" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="38">
   <si>
     <t>username</t>
   </si>
@@ -115,26 +105,50 @@
     <t>yes</t>
   </si>
   <si>
+    <t>doLoginTest</t>
+  </si>
+  <si>
+    <t>Fetches the title of the login page</t>
+  </si>
+  <si>
+    <t>getPageTitleTest</t>
+  </si>
+  <si>
+    <t>Login with user credentials</t>
+  </si>
+  <si>
     <t>no</t>
   </si>
   <si>
-    <t>doLoginTest</t>
-  </si>
-  <si>
-    <t>Fetches the title of the login page</t>
-  </si>
-  <si>
-    <t>getPageTitleTest</t>
-  </si>
-  <si>
-    <t>Login with user credentials</t>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>admin@123</t>
+  </si>
+  <si>
+    <t>admin123</t>
+  </si>
+  <si>
+    <t>admin112</t>
+  </si>
+  <si>
+    <t>browser</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>edge</t>
+  </si>
+  <si>
+    <t>firefox</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +158,21 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -166,13 +195,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -508,7 +540,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -688,13 +720,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD2EB0D-33B7-49D7-ACBF-38416B90E7CF}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="59.453125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -717,10 +749,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -729,18 +761,18 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
         <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -752,4 +784,111 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DF4E07-067A-4E66-B656-6582FBA390DE}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="17.81640625" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{48B1453E-05EE-4CA9-A4B0-C731FE57B0BC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>